--- a/doc/기능정의서_Straffic.xlsx
+++ b/doc/기능정의서_Straffic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\TeamProjectStraffic_\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB4B01C-B956-4F94-9161-135E8E09BCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F90F9-9871-433E-B667-E43187D90587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8371F89D-8479-4237-B0AF-9E2EEE88A3D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8371F89D-8479-4237-B0AF-9E2EEE88A3D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B67BAE9-F033-4B46-807B-3A19837CF556}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEB6C63-B6AA-4934-AE59-F017E9A752CA}">
   <dimension ref="A19:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
